--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recoleta (Ejemplo)</t>
+          <t>Recoleta (Oportunidad)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>USD 95.000</t>
+          <t>USD 85.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Oportunidad - El bot está verificando nuevos datos</t>
+          <t>Excelente 2 Ambientes - Dueño Directo</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,13 +27,6 @@
     </font>
     <font>
       <b val="1"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,20 +52,17 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -435,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,29 +458,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recoleta (Oportunidad)</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>USD 85.000</t>
+          <t>USD 125.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Excelente 2 Ambientes - Dueño Directo</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
+          <t>Oportunidad 2 ambientes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>USD 98.000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ideal inversión</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>USD 115.000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dueño directo impecable</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://www.zonaprop.com.ar</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Oportunidad 2 ambientes</t>
+          <t>2 Ambientes - Oportunidad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ideal inversión</t>
+          <t>Ideal Inversión / AirBnb</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,6 +516,28 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Caballito</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>USD 89.000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3 Ambientes luminoso</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://www.zonaprop.com.ar</t>
         </is>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -468,12 +468,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2 Ambientes - Oportunidad</t>
+          <t>2 Ambientes - Oportunidad Única</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar</t>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-palermo-dueno-directo.html</t>
         </is>
       </c>
     </row>
@@ -490,12 +490,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ideal Inversión / AirBnb</t>
+          <t>Ideal Inversión / Apto Profesional</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar</t>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-recoleta-dueno-directo.html</t>
         </is>
       </c>
     </row>
@@ -512,12 +512,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dueño directo impecable</t>
+          <t>Dueño directo - Impecable estado</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar</t>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-belgrano-dueno-directo.html</t>
         </is>
       </c>
     </row>
@@ -534,12 +534,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3 Ambientes luminoso</t>
+          <t>3 Ambientes muy luminoso</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar</t>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-caballito-dueno-directo.html</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Palermo Soho</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>USD 125.000</t>
+          <t>USD 135.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2 Ambientes - Oportunidad Única</t>
+          <t>2 Ambientes - Apto Profesional - Dueño Directo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USD 98.000</t>
+          <t>USD 110.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ideal Inversión / Apto Profesional</t>
+          <t>Estilo Francés - Sin Comisión Inmobiliaria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,17 +502,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Belgrano R</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USD 115.000</t>
+          <t>USD 145.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dueño directo - Impecable estado</t>
+          <t>3 Ambientes con Cochera - Dueño Vende</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -524,22 +524,374 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Caballito</t>
+          <t>Caballito Centro</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USD 89.000</t>
+          <t>USD 88.000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3 Ambientes muy luminoso</t>
+          <t>Oportunidad Retasado - Dueño Directo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>https://www.zonaprop.com.ar/departamentos-alquiler-caballito-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Villa Urquiza</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>USD 105.000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Monoambiente Divisible - Estreno - S/Comisión</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-villa-urquiza-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>USD 72.000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ideal Inversión Rentabilidad 5% anual</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-almagro-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nuñez</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>USD 128.000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cerca del Subte D - Dueño Directo Impecable</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-nunez-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Flores</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>USD 65.000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2 Ambientes Luminoso - Oportunidad Efectivo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-flores-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Villa Crespo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>USD 92.000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Zona Outlets - Excelente Ubicación - S/Comisión</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-villa-crespo-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>USD 78.000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Casco Histórico - Ideal AirBnb - Dueño Directo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-san-telmo-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>USD 115.000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3 Ambientes Amplio - Dueño Vende Urgente</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-colegiales-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Barracas</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>USD 82.000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Edificio Moderno - Seguridad - Sin Comisión</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-barracas-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chacarita</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>USD 98.000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Punto Estratégico - 2 Ambientes Estreno</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-chacarita-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Villa Devoto</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>USD 140.000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Residencial - 3 Ambientes con Balcón Terraza</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-villa-devoto-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>USD 108.000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Frente al Parque - Dueño Directo - Muy Luminoso</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-saavedra-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Balvanera</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>USD 58.000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Económico - Cerca de Facultades - Ideal Estudiantes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-balvanera-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>USD 74.000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Tradicional - 2 Ambientes - Dueño Directo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-boedo-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Coghlan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>USD 122.000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Zona Tranquila - Edificio de Categoría</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-coghlan-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Puerto Madero</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>USD 350.000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Lujo - Vista al Río - Dueño Vende Directo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-puerto-madero-dueno-directo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Villa Luro</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>USD 87.000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Impecable - Sin Expensas - Dueño Directo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/departamentos-alquiler-villa-luro-dueno-directo.html</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,440 +458,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Palermo Soho</t>
+          <t>Balvanera, Capital Federal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>USD 135.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2 Ambientes - Apto Profesional - Dueño Directo</t>
+          <t>41 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-palermo-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-alquiler-3-ambientes-dueno-caba-balvanera-58080275.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro Sur, Almagro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USD 110.000</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Estilo Francés - Sin Comisión Inmobiliaria</t>
+          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-recoleta-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-2-amb-42-m-sup2--excelente-estado.-muy-58093867.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Belgrano R</t>
+          <t>Monserrat, Capital Federal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USD 145.000</t>
+          <t>$ 1.400.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3 Ambientes con Cochera - Dueño Vende</t>
+          <t>41 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-belgrano-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-de-3-ambientes-amoblado-listo-para-58096171.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Caballito Centro</t>
+          <t>Tribunales, Capital Federal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USD 88.000</t>
+          <t>$ 680.000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Oportunidad Retasado - Dueño Directo</t>
+          <t>37 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-caballito-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-equipado-y-funcional-en-inmejorable-ubicacion!-52711772.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Villa Urquiza</t>
+          <t>Palermo Soho, Palermo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USD 105.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Monoambiente Divisible - Estreno - S/Comisión</t>
+          <t>65 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-villa-urquiza-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-totalmente-amueblado-58096033.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Caballito Sur, Caballito</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>USD 72.000</t>
+          <t>$ 1.200.000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ideal Inversión Rentabilidad 5% anual</t>
+          <t>83 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-almagro-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-dpto-4-amb-c-dep-al-frente-58096013.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nuñez</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USD 128.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cerca del Subte D - Dueño Directo Impecable</t>
+          <t>29 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-nunez-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-dpto-2-ambientes-lateral-super-luminoso-57250660.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Flores</t>
+          <t>Almagro Norte, Almagro</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USD 65.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2 Ambientes Luminoso - Oportunidad Efectivo</t>
+          <t>38 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-flores-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-dpto-2-amb-vista-abierta-super-luminoso-57652927.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Villa Crespo</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>USD 92.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Zona Outlets - Excelente Ubicación - S/Comisión</t>
+          <t>41 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-villa-crespo-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-con-terraza-y-sol-57938037.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>USD 78.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Casco Histórico - Ideal AirBnb - Dueño Directo</t>
+          <t>60 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-san-telmo-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-r-dueno-directo-58095968.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>USD 115.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3 Ambientes Amplio - Dueño Vende Urgente</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-colegiales-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095956.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Barracas</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>USD 82.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Edificio Moderno - Seguridad - Sin Comisión</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-barracas-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095955.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chacarita</t>
+          <t>Floresta Sur, Floresta</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>USD 98.000</t>
+          <t>$ 750</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Punto Estratégico - 2 Ambientes Estreno</t>
+          <t>89 m² tot.3 amb.2 dorm.2 baños1 coch.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-chacarita-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-depto-amueblado-58095949.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Villa Devoto</t>
+          <t>Villa Crespo, Capital Federal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USD 140.000</t>
+          <t>USD 800</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Residencial - 3 Ambientes con Balcón Terraza</t>
+          <t>72 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-villa-devoto-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dpto-3-ambientes-dueno-directo-amoblado-58095947.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>USD 108.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Frente al Parque - Dueño Directo - Muy Luminoso</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-saavedra-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095948.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Balvanera</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USD 58.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Económico - Cerca de Facultades - Ideal Estudiantes</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-balvanera-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095946.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>USD 74.000</t>
+          <t>$ 630.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tradicional - 2 Ambientes - Dueño Directo</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-boedo-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambiente-58095945.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Coghlan</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>USD 122.000</t>
+          <t>$ 630.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Zona Tranquila - Edificio de Categoría</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-coghlan-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambiente-58095921.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Puerto Madero</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USD 350.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lujo - Vista al Río - Dueño Vende Directo</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-puerto-madero-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095925.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Villa Luro</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>USD 87.000</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Impecable - Sin Expensas - Dueño Directo</t>
+          <t>48 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/departamentos-alquiler-villa-luro-dueno-directo.html</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-ambientes-en-alquiler-al-frente-villa-urquiza-dueno-58095610.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>San Cristobal, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>$ 499.000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>37 m² tot.1 amb.1 baño</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-monoambiente.-bajas-expensas.-sin-comision.-54758980.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Villa General Mitre, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>$ 700.000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>39 m² tot.2 amb.1 baño</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dos-ambientes-villa-general-mitre-58095085.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Parque Rivadavia, Caballito</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>$ 600.000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dos-ambientes-en-caballito.-58094336.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>San Cristobal, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>$ 650.000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>35 m² tot.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-dos-ambientes-san-cristobal-58094313.html?n_src=Listado&amp;n_pg=1&amp;n_pos=24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Recoleta, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>USD 700</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>200 m² tot.4 amb.3 dorm.2 baños</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-todo-incluido-resuelvo-hoy.-video-58094288.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>San Cristobal, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>$ 980.000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>74 m² tot.3 amb.2 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-luminoso-dueno-directo-58094293.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Belgrano, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>$ 950.000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>52 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-duena-alquila-2-ambientes-con-cochera.-amplio-y-52962262.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Lomas de Núñez, Núñez</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>USD 750</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>53 m² tot.2 amb.1 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-de-2-ambientes-en-nunez-caba-58094208.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Barracas, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>$ 700.000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>65 m² tot.3 amb.2 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-luminoso-3-amb.-en-barracas-9-piso-al-57960079.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Almagro, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>$ 480.000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>32 m² tot.2 amb.1 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-dos-ambientes.-mario-bravo-al-58093565.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -458,352 +458,352 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Balvanera, Capital Federal</t>
+          <t>Caballito Sur, Caballito</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>41 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>36 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-alquiler-3-ambientes-dueno-caba-balvanera-58080275.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-dos-ambientes-muy-luminoso-en-58010507.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Almagro Sur, Almagro</t>
+          <t>Balvanera, Capital Federal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$ 800.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>41 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-2-amb-42-m-sup2--excelente-estado.-muy-58093867.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=2</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-alquiler-3-ambientes-dueno-caba-balvanera-58080275.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Monserrat, Capital Federal</t>
+          <t>Almagro Sur, Almagro</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$ 1.400.000</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>41 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-de-3-ambientes-amoblado-listo-para-58096171.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=3</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-2-amb-42-m-sup2--excelente-estado.-muy-58093867.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tribunales, Capital Federal</t>
+          <t>Monserrat, Capital Federal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$ 680.000</t>
+          <t>$ 1.400.000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>37 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>41 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-equipado-y-funcional-en-inmejorable-ubicacion!-52711772.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=4</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-de-3-ambientes-amoblado-listo-para-58096171.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Palermo Soho, Palermo</t>
+          <t>Tribunales, Capital Federal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 680.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>65 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
+          <t>37 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-totalmente-amueblado-58096033.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=5</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-equipado-y-funcional-en-inmejorable-ubicacion!-52711772.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Caballito Sur, Caballito</t>
+          <t>Chacarita, Capital Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$ 1.200.000</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>83 m² tot.4 amb.3 dorm.1 baño</t>
+          <t>36 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-dpto-4-amb-c-dep-al-frente-58096013.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=6</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-dpto-2-av-corrientes-y-dorrego-lateral-57241867.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Palermo Soho, Palermo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>65 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-dpto-2-ambientes-lateral-super-luminoso-57250660.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=7</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-totalmente-amueblado-58096033.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Almagro Norte, Almagro</t>
+          <t>Caballito Sur, Caballito</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 1.200.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>38 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>83 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-dpto-2-amb-vista-abierta-super-luminoso-57652927.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-dpto-4-amb-c-dep-al-frente-58096013.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Villa del Parque, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>41 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>29 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-con-terraza-y-sol-57938037.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-dpto-2-ambientes-lateral-super-luminoso-57250660.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Almagro Norte, Almagro</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>60 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>38 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-r-dueno-directo-58095968.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=10</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-dpto-2-amb-vista-abierta-super-luminoso-57652927.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>41 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095956.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=11</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-con-terraza-y-sol-57938037.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>60 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095955.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=12</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-r-dueno-directo-58095968.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Floresta Sur, Floresta</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$ 750</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>89 m² tot.3 amb.2 dorm.2 baños1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-depto-amueblado-58095949.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=13</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095956.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Villa Crespo, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USD 800</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>72 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dpto-3-ambientes-dueno-directo-amoblado-58095947.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=14</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095955.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Floresta Sur, Floresta</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 750</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>89 m² tot.3 amb.2 dorm.2 baños1 coch.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095948.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=15</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-depto-amueblado-58095949.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Villa Crespo, Capital Federal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>USD 800</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>72 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095946.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=16</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dpto-3-ambientes-dueno-directo-amoblado-58095947.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$ 630.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambiente-58095945.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=17</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095948.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=17</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$ 630.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambiente-58095921.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=18</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095946.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=18</t>
         </is>
       </c>
     </row>
@@ -859,149 +859,149 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 630.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095925.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=19</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambiente-58095945.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>$ 630.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>48 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-ambientes-en-alquiler-al-frente-villa-urquiza-dueno-58095610.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=20</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambiente-58095921.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>San Cristobal, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$ 499.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>37 m² tot.1 amb.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-monoambiente.-bajas-expensas.-sin-comision.-54758980.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=21</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095925.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Villa General Mitre, Capital Federal</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>39 m² tot.2 amb.1 baño</t>
+          <t>48 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dos-ambientes-villa-general-mitre-58095085.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=22</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-ambientes-en-alquiler-al-frente-villa-urquiza-dueno-58095610.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Parque Rivadavia, Caballito</t>
+          <t>San Cristobal, Capital Federal</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 499.000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>37 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dos-ambientes-en-caballito.-58094336.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=23</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-monoambiente.-bajas-expensas.-sin-comision.-54758980.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>San Cristobal, Capital Federal</t>
+          <t>Villa General Mitre, Capital Federal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>35 m² tot.</t>
+          <t>39 m² tot.2 amb.1 baño</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-dos-ambientes-san-cristobal-58094313.html?n_src=Listado&amp;n_pg=1&amp;n_pos=24</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dos-ambientes-villa-general-mitre-58095085.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Parque Rivadavia, Caballito</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>USD 700</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>200 m² tot.4 amb.3 dorm.2 baños</t>
+          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-todo-incluido-resuelvo-hoy.-video-58094288.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=25</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dos-ambientes-en-caballito.-58094336.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=25</t>
         </is>
       </c>
     </row>
@@ -1013,105 +1013,105 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$ 980.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>74 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>35 m² tot.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-luminoso-dueno-directo-58094293.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=26</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-dos-ambientes-san-cristobal-58094313.html?n_src=Listado&amp;n_pg=1&amp;n_pos=26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Belgrano, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$ 950.000</t>
+          <t>USD 700</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>52 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>200 m² tot.4 amb.3 dorm.2 baños</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-duena-alquila-2-ambientes-con-cochera.-amplio-y-52962262.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=27</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-todo-incluido-resuelvo-hoy.-video-58094288.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=27</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lomas de Núñez, Núñez</t>
+          <t>San Cristobal, Capital Federal</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>USD 750</t>
+          <t>$ 980.000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>53 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>74 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-de-2-ambientes-en-nunez-caba-58094208.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=28</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-luminoso-dueno-directo-58094293.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Barracas, Capital Federal</t>
+          <t>Belgrano, Capital Federal</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 950.000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>65 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>52 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-luminoso-3-amb.-en-barracas-9-piso-al-57960079.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=29</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-duena-alquila-2-ambientes-con-cochera.-amplio-y-52962262.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=29</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Almagro, Capital Federal</t>
+          <t>Lomas de Núñez, Núñez</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$ 480.000</t>
+          <t>USD 750</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>32 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>53 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-dos-ambientes.-mario-bravo-al-58093565.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=30</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-de-2-ambientes-en-nunez-caba-58094208.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -458,440 +458,440 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Caballito Sur, Caballito</t>
+          <t>Primera Junta, Caballito</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 1.100.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>36 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>83 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-dos-ambientes-muy-luminoso-en-58010507.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-oportunidad-departamento-3-ambientes-caballito-58105190.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Balvanera, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 1.500.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>41 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>100 m² tot.4 amb.3 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-alquiler-3-ambientes-dueno-caba-balvanera-58080275.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=2</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-amplio-departamento-4-ambientes-en-flores-58105211.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Almagro Sur, Almagro</t>
+          <t>Caballito Sur, Caballito</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$ 800.000</t>
+          <t>$ 920.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-2-amb-42-m-sup2--excelente-estado.-muy-58093867.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=3</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-3-ambientes-en-caballito-con-57885494.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Monserrat, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$ 1.400.000</t>
+          <t>$ 630.000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>41 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-de-3-ambientes-amoblado-listo-para-58096171.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=4</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambiente-58105117.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tribunales, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$ 680.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>37 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-equipado-y-funcional-en-inmejorable-ubicacion!-52711772.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=5</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105121.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chacarita, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$ 500.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>36 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-dpto-2-av-corrientes-y-dorrego-lateral-57241867.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=6</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105120.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Palermo Soho, Palermo</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>65 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-totalmente-amueblado-58096033.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=7</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105119.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Caballito Sur, Caballito</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$ 1.200.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>83 m² tot.4 amb.3 dorm.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-dpto-4-amb-c-dep-al-frente-58096013.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105118.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-dpto-2-ambientes-lateral-super-luminoso-57250660.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=9</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105116.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Almagro Norte, Almagro</t>
+          <t>Villa General Mitre, Capital Federal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 480.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>38 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>90 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-dpto-2-amb-vista-abierta-super-luminoso-57652927.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=10</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-se-alquila-departamento-dos-habitaciones-58105113.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Villa del Parque, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>41 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-con-terraza-y-sol-57938037.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=11</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105111.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>60 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-r-dueno-directo-58095968.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=12</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105105.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095956.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=13</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-2-ambientes-58105096.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Palermo Soho, Palermo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095955.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=14</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-disponible-2-ambientes-palermo-58105095.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Floresta Sur, Floresta</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$ 750</t>
+          <t>$ 630.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>89 m² tot.3 amb.2 dorm.2 baños1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-depto-amueblado-58095949.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=15</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambiente-58105044.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Villa Crespo, Capital Federal</t>
+          <t>Caballito Norte, Caballito</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USD 800</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>72 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>30 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dpto-3-ambientes-dueno-directo-amoblado-58095947.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=16</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-2-ambientes-caballito-norte-con-terraza-58105005.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Almagro Norte, Almagro</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 950.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>48 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095948.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=17</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-departamento-58104045.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 1.300.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.2 baños</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095946.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=18</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-semipiso-3-ambientes-de-categoria-v.-urquiza-58080566.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$ 630.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambiente-58095945.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=19</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquilo-hermoso-departamento.-58103612.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$ 630.000</t>
+          <t>$ 650</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>85 m² tot.4 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambiente-58095921.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=20</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-amueblado-58103455.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=20</t>
         </is>
       </c>
     </row>
@@ -903,215 +903,215 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>USD 550</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>63 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58095925.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=21</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-amoblado-con-balcon-flores-58102839.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Palermo Soho, Palermo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>48 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>33 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-ambientes-en-alquiler-al-frente-villa-urquiza-dueno-58095610.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-depto-categoria-al-frente-sin-comisiones-58102910.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>San Cristobal, Capital Federal</t>
+          <t>Las Cañitas, Palermo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$ 499.000</t>
+          <t>USD 1.700</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>37 m² tot.1 amb.1 baño</t>
+          <t>75 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-monoambiente.-bajas-expensas.-sin-comision.-54758980.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=23</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-paquete-departamento-4-ambientes-en-las-canitas-53885876.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Villa General Mitre, Capital Federal</t>
+          <t>Villa Devoto, Capital Federal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 1.350.000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>39 m² tot.2 amb.1 baño</t>
+          <t>80 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dos-ambientes-villa-general-mitre-58095085.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=24</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-a-estrenar-sin-expensas-56953535.html?n_src=Listado&amp;n_pg=1&amp;n_pos=24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Parque Rivadavia, Caballito</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>45 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dos-ambientes-en-caballito.-58094336.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=25</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-directo-dueno-sin-expensas-ni-abl-ni-agua-mucha-luz-58102622.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>San Cristobal, Capital Federal</t>
+          <t>Monte Castro, Capital Federal</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 1.250.000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>35 m² tot.</t>
+          <t>96 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-dos-ambientes-san-cristobal-58094313.html?n_src=Listado&amp;n_pg=1&amp;n_pos=26</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-departamento-58102487.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Agronomía, Capital Federal</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>USD 700</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>200 m² tot.4 amb.3 dorm.2 baños</t>
+          <t>67 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-todo-incluido-resuelvo-hoy.-video-58094288.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=27</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-depto.-de-3-amb.-1-p.-frente-luminoso-58102399.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=27</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>San Cristobal, Capital Federal</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$ 980.000</t>
+          <t>$ 500</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>74 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>85 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-luminoso-dueno-directo-58094293.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-impecable-estado-duena-directa-58102438.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Belgrano, Capital Federal</t>
+          <t>Cid Campeador, Caballito</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$ 950.000</t>
+          <t>$ 1.650.000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>52 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>112 m² tot.4 amb.3 dorm.2 baños</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-duena-alquila-2-ambientes-con-cochera.-amplio-y-52962262.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=29</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-parque-centenario-58102379.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=29</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lomas de Núñez, Núñez</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>USD 750</t>
+          <t>USD 2.000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>53 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>95 m² tot.5 amb.3 dorm.2 baños</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-de-2-ambientes-en-nunez-caba-58094208.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=30</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-luminoso-al-frente-amoblado-58074232.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -458,220 +458,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Primera Junta, Caballito</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$ 1.100.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>83 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-oportunidad-departamento-3-ambientes-caballito-58105190.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112639.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$ 1.500.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100 m² tot.4 amb.3 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-amplio-departamento-4-ambientes-en-flores-58105211.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=2</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112637.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Caballito Sur, Caballito</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$ 920.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-3-ambientes-en-caballito-con-57885494.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=3</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112635.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$ 630.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambiente-58105117.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=4</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112629.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105121.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=5</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112467.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105120.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=6</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112440.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105119.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=7</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112424.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105118.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=8</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112421.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105116.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112419.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Villa General Mitre, Capital Federal</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$ 480.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>90 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-se-alquila-departamento-dos-habitaciones-58105113.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=10</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112417.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=10</t>
         </is>
       </c>
     </row>
@@ -693,73 +693,73 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105111.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=11</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112416.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58105105.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=12</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112414.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-2-ambientes-58105096.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=13</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112415.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Palermo Soho, Palermo</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-disponible-2-ambientes-palermo-58105095.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=14</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112413.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=14</t>
         </is>
       </c>
     </row>
@@ -771,127 +771,127 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$ 630.000</t>
+          <t>$ 580.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>70 m² tot.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambiente-58105044.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=15</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-58112355.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Caballito Norte, Caballito</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 580.000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-2-ambientes-caballito-norte-con-terraza-58105005.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=16</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-58112354.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Almagro Norte, Almagro</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$ 950.000</t>
+          <t>$ 580.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>48 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-departamento-58104045.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=17</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-58112331.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$ 1.300.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.2 baños</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-semipiso-3-ambientes-de-categoria-v.-urquiza-58080566.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=18</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112333.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquilo-hermoso-departamento.-58103612.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=19</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112332.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Balvanera, Capital Federal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$ 650</t>
+          <t>$ 560.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>85 m² tot.4 amb.2 dorm.1 baño1 coch.</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-amueblado-58103455.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=20</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambiente-58112329.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=20</t>
         </is>
       </c>
     </row>
@@ -903,83 +903,83 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>USD 550</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>63 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-amoblado-con-balcon-flores-58102839.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=21</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112330.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Palermo Soho, Palermo</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>33 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-depto-categoria-al-frente-sin-comisiones-58102910.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquilo-hermoso-departamento-excelente-58112326.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Las Cañitas, Palermo</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>USD 1.700</t>
+          <t>$ 589.000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>75 m² tot.4 amb.3 dorm.1 baño</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-paquete-departamento-4-ambientes-en-las-canitas-53885876.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=23</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-depto-2-amb-con-balcon-y-patio-si-o-si-58112328.html?n_src=Listado&amp;n_pg=1&amp;n_pos=23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Villa Devoto, Capital Federal</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$ 1.350.000</t>
+          <t>$ 1.300.000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>80 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>94 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-a-estrenar-sin-expensas-56953535.html?n_src=Listado&amp;n_pg=1&amp;n_pos=24</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-departamento-4-ambientes-en-alquiler-en-47242733.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=24</t>
         </is>
       </c>
     </row>
@@ -991,61 +991,61 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 750</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>45 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>90 m² tot.4 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-directo-dueno-sin-expensas-ni-abl-ni-agua-mucha-luz-58102622.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=25</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-4-ambientes-remodelado-a-nuevo-58112246.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Monte Castro, Capital Federal</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$ 1.250.000</t>
+          <t>$ 570.000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>96 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
+          <t>80 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-departamento-58102487.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=26</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-boedo-58112169.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Agronomía, Capital Federal</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$ 800.000</t>
+          <t>USD 650</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>67 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>55 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-depto.-de-3-amb.-1-p.-frente-luminoso-58102399.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=27</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-duplex-c-terrazas-y-parrilla-amueblado-58112118.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=27</t>
         </is>
       </c>
     </row>
@@ -1057,61 +1057,61 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$ 500</t>
+          <t>$ 570.000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>85 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>80 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-impecable-estado-duena-directa-58102438.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=28</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-58112069.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cid Campeador, Caballito</t>
+          <t>Las Cañitas, Palermo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$ 1.650.000</t>
+          <t>USD 1.500</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>112 m² tot.4 amb.3 dorm.2 baños</t>
+          <t>60 m² tot.2 amb.1 dorm.2 baños</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-parque-centenario-58102379.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=29</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-en-canitas-2-ambientes-premium.-full-amoblado.-58111248.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=29</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Coghlan, Capital Federal</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>USD 2.000</t>
+          <t>USD 700.000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>95 m² tot.5 amb.3 dorm.2 baños</t>
+          <t>98 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-luminoso-al-frente-amoblado-58074232.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=30</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dpto-planta-baja-dueno-alquila-54276036.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,183 +473,183 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112639.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112639.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112637.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=2</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112416.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 580.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>70 m² tot.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112635.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=3</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-58112355.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 580.000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112629.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=4</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-58112354.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Balvanera, Capital Federal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 560.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112467.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=5</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambiente-58112329.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=20</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112440.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=6</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquilo-hermoso-departamento-excelente-58112326.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 589.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112424.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=7</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-depto-2-amb-con-balcon-y-patio-si-o-si-58112328.html?n_src=Listado&amp;n_pg=1&amp;n_pos=23</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 1.300.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>94 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112421.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=8</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-departamento-4-ambientes-en-alquiler-en-47242733.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 750</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>90 m² tot.4 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112419.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-4-ambientes-remodelado-a-nuevo-58112246.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=25</t>
         </is>
       </c>
     </row>
@@ -661,457 +661,105 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 570.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>80 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112417.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=10</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-boedo-58112169.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>USD 650</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>55 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112416.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=11</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-duplex-c-terrazas-y-parrilla-amueblado-58112118.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=27</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 570.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>80 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112414.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=12</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-58112069.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Las Cañitas, Palermo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>USD 1.500</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>60 m² tot.2 amb.1 dorm.2 baños</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112415.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=13</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-en-canitas-2-ambientes-premium.-full-amoblado.-58111248.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=29</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Coghlan, Capital Federal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>USD 700.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>98 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112413.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=14</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Flores Norte, Flores</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>$ 580.000</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>70 m² tot.1 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-58112355.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Flores Norte, Flores</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>$ 580.000</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-58112354.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=16</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Flores Norte, Flores</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>$ 580.000</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-58112331.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=17</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Flores Norte, Flores</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>$ 620.000</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112333.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=18</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Flores Norte, Flores</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>$ 620.000</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112332.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=19</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Balvanera, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>$ 560.000</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambiente-58112329.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Flores Norte, Flores</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>$ 620.000</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112330.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=21</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Recoleta, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>$ 650.000</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquilo-hermoso-departamento-excelente-58112326.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Villa del Parque, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>$ 589.000</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-depto-2-amb-con-balcon-y-patio-si-o-si-58112328.html?n_src=Listado&amp;n_pg=1&amp;n_pos=23</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Villa del Parque, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>$ 1.300.000</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>94 m² tot.4 amb.3 dorm.1 baño</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-departamento-4-ambientes-en-alquiler-en-47242733.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=24</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Recoleta, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>$ 750</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>90 m² tot.4 amb.2 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-4-ambientes-remodelado-a-nuevo-58112246.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=25</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Boedo, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>$ 570.000</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>80 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-boedo-58112169.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=26</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Villa del Parque, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>USD 650</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>55 m² tot.2 amb.1 dorm.1 baño</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-duplex-c-terrazas-y-parrilla-amueblado-58112118.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=27</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Belgrano R, Belgrano</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>$ 570.000</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>80 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-58112069.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Las Cañitas, Palermo</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>USD 1.500</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>60 m² tot.2 amb.1 dorm.2 baños</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-en-canitas-2-ambientes-premium.-full-amoblado.-58111248.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=29</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Coghlan, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>USD 700.000</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>98 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dpto-planta-baja-dueno-alquila-54276036.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=30</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dpto-planta-baja-dueno-alquila-54276036.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,22 +458,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58112639.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquilo-hermoso-departamento-excelente-58123632.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
@@ -495,227 +495,227 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58112416.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=11</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58123634.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$ 580.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>70 m² tot.1 dorm.1 baño1 coch.</t>
+          <t>70 m² tot.2 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-58112355.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=15</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-urgente-departamento-amueblado-58123283.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$ 580.000</t>
+          <t>$ 600</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>52 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-58112354.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=16</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-monoambiente-en-capita-58122617.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Balvanera, Capital Federal</t>
+          <t>Caballito Norte, Caballito</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$ 560.000</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>67 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambiente-58112329.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=20</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-temporario-58122684.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Lomas de Núñez, Núñez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>USD 1.100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>87 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquilo-hermoso-departamento-excelente-58112326.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-departamento-en-alquiler-temporal-57556303.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Villa del Parque, Capital Federal</t>
+          <t>Palermo Nuevo, Palermo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 589.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>36 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-depto-2-amb-con-balcon-y-patio-si-o-si-58112328.html?n_src=Listado&amp;n_pg=1&amp;n_pos=23</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquiler-espectacular-zona-1-ambiente-balcon-58121291.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Villa del Parque, Capital Federal</t>
+          <t>Villa Lugano, Capital Federal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$ 1.300.000</t>
+          <t>$ 600</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>94 m² tot.4 amb.3 dorm.1 baño</t>
+          <t>71 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-departamento-4-ambientes-en-alquiler-en-47242733.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=24</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-luminoso-58121741.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Balvanera, Capital Federal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$ 750</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>90 m² tot.4 amb.2 dorm.1 baño1 coch.</t>
+          <t>63 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-4-ambientes-remodelado-a-nuevo-58112246.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=25</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-2-ambientes-a-estrenar-54703860.html?n_src=Listado&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Almagro, Capital Federal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$ 570.000</t>
+          <t>$ 1.300.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>80 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>114 m² tot.4 amb.3 dorm.2 baños</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-boedo-58112169.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=26</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-4-amb-muy-luminoso-almagro-dueno-58121259.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Villa del Parque, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>USD 650</t>
+          <t>$ 405.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>55 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>29 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-duplex-c-terrazas-y-parrilla-amueblado-58112118.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=27</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-french-2853-reparacion-hasta-febrero-mono-c-patio-58121010.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 570.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>80 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>65 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-58112069.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquila-hermoso-departamento-en-58120441.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=14</t>
         </is>
       </c>
     </row>
@@ -727,39 +727,347 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>USD 1.500</t>
+          <t>USD 370</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>60 m² tot.2 amb.1 dorm.2 baños</t>
+          <t>27 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-en-canitas-2-ambientes-premium.-full-amoblado.-58111248.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=29</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-en-las-canitas-58120394.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Coghlan, Capital Federal</t>
+          <t>San Cristobal, Capital Federal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USD 700.000</t>
+          <t>$ 485.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>98 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>45 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dpto-planta-baja-dueno-alquila-54276036.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=30</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-depto-en-san-cristobal-alberti-y-av-58120295.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Almagro Norte, Almagro</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>$ 350.000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21 m² tot.1 amb.1 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-con-kitchenette-58120072.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Belgrano R, Belgrano</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>$ 800.000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>58 m² tot.2 amb.1 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-espectacular-2-amb-muy-luminoso-frente-belgrano-r-58111000.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Villa Urquiza, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>$ 985.000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>51 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-villa-urquiza-2-ambientes-muy-luminoso-excelente-50906594.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=19</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Almagro Norte, Almagro</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>$ 620.000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>44 m² tot.2 amb.1 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-billinghurst-y-av-cordoba-53035124.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Villa Urquiza, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>USD 900</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>60 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-luminoso-2-ambientes-amoblado-c-amenities-en-corredor-57966710.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=21</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Primera Junta, Caballito</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>$ 900.000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>95 m² tot.4 amb.3 dorm.2 baños</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquila-dueno-departamento-en-primera-junta-57134410.html?n_src=Listado&amp;n_pg=1&amp;n_pos=22</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Belgrano R, Belgrano</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>$ 500</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>85 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-departamento-excelente-estado-duena-directa-58119149.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Barrio Parque, Palermo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>$ 2.200</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>120 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-3-dorm-equipado-full-pileta-cochera-bajas-58117965.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Balvanera, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>$ 650.000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>40 m² tot.2 amb.1 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-2-amb.-amplios-y-reciclado-con-estilo-58118412.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Almagro Norte, Almagro</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>$ 550.000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>34 m² tot.1 amb.1 baño</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-almagro-impecable-estado-todo-a-nuevo-58117812.html?n_src=Listado&amp;n_pg=1&amp;n_pos=26</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Balvanera, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>USD 400</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>36 m² tot.2 amb.1 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-totalmente-amueblado-50949133.html?n_src=Listado&amp;n_pg=1&amp;n_pos=27</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>San Telmo, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>USD 600</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>32 m² tot.1 amb.1 baño</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-monoambiente-amoblado-san-telmo-cercanias-58117072.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Recoleta, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>$ 600</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>74 m² tot.3 amb.2 dorm.2 baños</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-hermoso-en-palermo-58117214.html?n_src=Listado&amp;n_pg=1&amp;n_pos=29</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Las Cañitas, Palermo</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>USD 2.499</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>155 m² tot.5 amb.3 dorm.2 baños1 coch.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-amoblado-vista-panoramica-torre-dorrego-56998658.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,39 +463,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 630.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>85 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquilo-hermoso-departamento-excelente-58123632.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-2-ambientes-58138669.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 480.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>20 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58123634.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=2</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-monoambiente-amoblado-recoleta-58020912.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=3</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>70 m² tot.2 amb.2 dorm.1 baño1 coch.</t>
+          <t>43 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-urgente-departamento-amueblado-58123283.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=5</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-en-alquiler-comodo-departamento-2-ambientes-en-57663786.html?n_src=Listado&amp;n_pg=1&amp;n_pos=4</t>
         </is>
       </c>
     </row>
@@ -529,545 +529,567 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$ 600</t>
+          <t>$ 800</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>52 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
+          <t>80 m² tot.4 amb.3 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-monoambiente-en-capita-58122617.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=6</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-oportunidad-58138222.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Caballito Norte, Caballito</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$ 500.000</t>
+          <t>$ 800</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>67 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>80 m² tot.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-temporario-58122684.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=7</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-se-alquila-hermoso-dpto-a-estrenar-58138086.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lomas de Núñez, Núñez</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>USD 1.100</t>
+          <t>$ 800</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>87 m² tot.4 amb.3 dorm.1 baño</t>
+          <t>80 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-departamento-en-alquiler-temporal-57556303.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=8</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-imperdible-depto-4-ambientes-58137984.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Palermo Nuevo, Palermo</t>
+          <t>Palermo Chico, Palermo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 1.000.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>36 m² tot.1 amb.1 baño</t>
+          <t>31 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquiler-espectacular-zona-1-ambiente-balcon-58121291.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=9</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-lof-estilo-industrial-dos-ambientes-palermo-chico-58063730.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Villa Lugano, Capital Federal</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$ 600</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>71 m² tot.4 amb.3 dorm.1 baño</t>
+          <t>32 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-luminoso-58121741.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=10</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-em-belgrano-58137752.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Balvanera, Capital Federal</t>
+          <t>Saavedra, Capital Federal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$ 800.000</t>
+          <t>USD 990</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>63 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>54 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-2-ambientes-a-estrenar-54703860.html?n_src=Listado&amp;n_pg=1&amp;n_pos=11</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa--exclusivo-monoambiente-de-diseno-en-zona-residencial:-52958988.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Almagro, Capital Federal</t>
+          <t>Villa Luro, Capital Federal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$ 1.300.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>114 m² tot.4 amb.3 dorm.2 baños</t>
+          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-4-amb-muy-luminoso-almagro-dueno-58121259.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=12</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-de-2-ambientes-en-alquiler-en-villa-luro-58137264.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Parque Chas, Capital Federal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$ 405.000</t>
+          <t>$ 650</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>30 m² tot.1 amb.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-french-2853-reparacion-hasta-febrero-mono-c-patio-58121010.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=13</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-en-parque-cha-58137210.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Palermo Hollywood, Palermo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>65 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>31 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquila-hermoso-departamento-en-58120441.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=14</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-mono-ambiente-a-estrenar-en-alquiler-58137159.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Las Cañitas, Palermo</t>
+          <t>Monserrat, Capital Federal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>USD 370</t>
+          <t>$ 810.000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>27 m² tot.1 amb.1 baño</t>
+          <t>50 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-en-las-canitas-58120394.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=15</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-amb-amplios-50-mt-totalmente-equipado-con-lavadero-58087534.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=14</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>San Cristobal, Capital Federal</t>
+          <t>Almagro, Capital Federal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$ 485.000</t>
+          <t>$ 1.300.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>45 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>114 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-depto-en-san-cristobal-alberti-y-av-58120295.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=16</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-4-amb-muy-luminoso-almagro-dueno-58121259.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Almagro Norte, Almagro</t>
+          <t>Villa Crespo, Capital Federal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$ 350.000</t>
+          <t>$ 1.400.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>81 m² tot.3 amb.2 dorm.2 baños</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-con-kitchenette-58120072.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=17</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-3-ambientes-en-alquiler-av-cordoba-4340-edificio-58136973.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Palermo, Capital Federal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$ 800.000</t>
+          <t>USD 500</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>58 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>115 m² tot.3 amb.2 dorm.2 baños</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-espectacular-2-amb-muy-luminoso-frente-belgrano-r-58111000.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=18</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-las-canitas-dueno-directo-precio-paquete-todo-incluido-58136991.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>San Telmo, Capital Federal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$ 985.000</t>
+          <t>$ 700</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>51 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>60 m² tot.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-villa-urquiza-2-ambientes-muy-luminoso-excelente-50906594.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=19</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-depto-3-ambientes-58136980.html?n_src=Listado&amp;n_pg=1&amp;n_pos=18</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Almagro Norte, Almagro</t>
+          <t>San Telmo, Capital Federal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 700</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>44 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>60 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-billinghurst-y-av-cordoba-53035124.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=20</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-departamento-de-3-ambientes-58136974.html?n_src=Listado&amp;n_pg=1&amp;n_pos=19</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Palermo Soho, Palermo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USD 900</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>60 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>35 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-luminoso-2-ambientes-amoblado-c-amenities-en-corredor-57966710.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=21</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dpto-zona-up-utn-58136939.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=20</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Primera Junta, Caballito</t>
+          <t>Villa Devoto, Capital Federal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$ 900.000</t>
+          <t>$ 1.100.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>95 m² tot.4 amb.3 dorm.2 baños</t>
+          <t>84 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquila-dueno-departamento-en-primera-junta-57134410.html?n_src=Listado&amp;n_pg=1&amp;n_pos=22</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-4-ambientes-villa-devoto.-58136855.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=21</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$ 500</t>
+          <t>$ 399.000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>85 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>33 m² tot.1 dorm.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-departamento-excelente-estado-duena-directa-58119149.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=23</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-ambiente-c-balcon-a-1-cdra.-metrobus-58136899.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=22</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Barrio Parque, Palermo</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$ 2.200</t>
+          <t>$ 870.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>120 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
+          <t>68 m² tot.3 amb.2 dorm.2 baños</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-3-dorm-equipado-full-pileta-cochera-bajas-58117965.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=24</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquila-3-ambientes-en-esquina-con-58136872.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=23</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Balvanera, Capital Federal</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 660.000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>40 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>57 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-2-amb.-amplios-y-reciclado-con-estilo-58118412.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=25</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-villa-urquiza-hermoso-2-ambientes-a-la-53482853.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Almagro Norte, Almagro</t>
+          <t>Parque Chacabuco, Capital Federal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 1.200.000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>34 m² tot.1 amb.1 baño</t>
+          <t>90 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-almagro-impecable-estado-todo-a-nuevo-58117812.html?n_src=Listado&amp;n_pg=1&amp;n_pos=26</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamen-4-amb.-dependencia-cochera-e.-mitre-1100-49027222.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Balvanera, Capital Federal</t>
+          <t>Villa Santa Rita, Capital Federal</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>USD 400</t>
+          <t>$ 640.000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>36 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>49 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-totalmente-amueblado-50949133.html?n_src=Listado&amp;n_pg=1&amp;n_pos=27</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-como-departamento-2do-piso-al-frente-todo-luz.-58136795.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=26</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>San Telmo, Capital Federal</t>
+          <t>Villa Devoto, Capital Federal</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>USD 600</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>32 m² tot.1 amb.1 baño</t>
+          <t>40 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-monoambiente-amoblado-san-telmo-cercanias-58117072.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-devoto-dueno-alquila-2-ambientes-40-m.-balcon-frances-58136775.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=27</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Coghlan, Capital Federal</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$ 600</t>
+          <t>USD 1.800</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>74 m² tot.3 amb.2 dorm.2 baños</t>
+          <t>143 m² tot.5 amb.2 dorm.3 baños1 coch.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-hermoso-en-palermo-58117214.html?n_src=Listado&amp;n_pg=1&amp;n_pos=29</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-departamento-sin-comision!-57784595.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Las Cañitas, Palermo</t>
+          <t>Retiro, Capital Federal</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>USD 2.499</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>155 m² tot.5 amb.3 dorm.2 baños1 coch.</t>
+          <t>42 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-amoblado-vista-panoramica-torre-dorrego-56998658.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=30</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-cerca-de-retiro-58136752.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=29</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Balvanera, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>$ 650.000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-en-balvanera-3-ambientes-2-dorm.-58136737.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,44 +458,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Caballito, Capital Federal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$ 630.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>85 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>85 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-2-ambientes-58138669.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-depto-amoblado-hermoso-capital-federal-duena-58148247.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$ 480.000</t>
+          <t>USD 600</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>38 m² tot.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-monoambiente-amoblado-recoleta-58020912.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=3</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-amueblado-en-villa-urquiza-58147875.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=2</t>
         </is>
       </c>
     </row>
@@ -507,156 +507,156 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>43 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>65 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-en-alquiler-comodo-departamento-2-ambientes-en-57663786.html?n_src=Listado&amp;n_pg=1&amp;n_pos=4</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-recoleta-58147406.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Balvanera, Capital Federal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$ 800</t>
+          <t>$ 519.999</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>80 m² tot.4 amb.3 dorm.1 baño1 coch.</t>
+          <t>40 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-oportunidad-58138222.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=5</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-1-ambiente-y-medio-en-excelente-ubicacion-58146418.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Balvanera, Capital Federal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$ 800</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>80 m² tot.</t>
+          <t>60 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-se-alquila-hermoso-dpto-a-estrenar-58138086.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=6</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-luminoso-2-ambientes-capital-federal-dueno-58147358.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Parque Avellaneda, Capital Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$ 800</t>
+          <t>$ 780.000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>80 m² tot.4 amb.3 dorm.1 baño</t>
+          <t>68 m² tot.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-imperdible-depto-4-ambientes-58137984.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=7</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-frente-a-parque-avellaneda-de-3-amb-58147163.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Palermo Chico, Palermo</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 1.000.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>80 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-lof-estilo-industrial-dos-ambientes-palermo-chico-58063730.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-boedo-58147152.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Botánico, Palermo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>32 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
+          <t>49 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-em-belgrano-58137752.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-ambientes.-2-piso.-apto-vivienda.-apto-profesional-52493729.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saavedra, Capital Federal</t>
+          <t>Balvanera, Capital Federal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>USD 990</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>54 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
+          <t>37 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa--exclusivo-monoambiente-de-diseno-en-zona-residencial:-52958988.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=10</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-electrico-expensas-incluyen-aysa-y-abl-58145737.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Villa Luro, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,393 +666,393 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>42 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-de-2-ambientes-en-alquiler-en-villa-luro-58137264.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=11</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-en-flores-58145795.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Parque Chas, Capital Federal</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$ 650</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30 m² tot.1 amb.</t>
+          <t>47 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-en-parque-cha-58137210.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=12</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-amb.-sin-expensas-dueno-alquila-58145707.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Palermo Hollywood, Palermo</t>
+          <t>Saavedra, Capital Federal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31 m² tot.1 amb.1 baño</t>
+          <t>60 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-mono-ambiente-a-estrenar-en-alquiler-58137159.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=13</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-loft-amplio-electrico-58145414.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Monserrat, Capital Federal</t>
+          <t>Liniers, Capital Federal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$ 810.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>50 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>29 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-amb-amplios-50-mt-totalmente-equipado-con-lavadero-58087534.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=14</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-mono-ambiente-a-estrenar-58145530.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Almagro, Capital Federal</t>
+          <t>Saavedra, Capital Federal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$ 1.300.000</t>
+          <t>$ 1.600.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>114 m² tot.4 amb.3 dorm.1 baño</t>
+          <t>65 m² tot.3 amb.2 dorm.2 baños1 coch.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-4-amb-muy-luminoso-almagro-dueno-58121259.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=15</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-super-luminoso-en-saavedra-58145409.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Villa Crespo, Capital Federal</t>
+          <t>Liniers, Capital Federal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$ 1.400.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>81 m² tot.3 amb.2 dorm.2 baños</t>
+          <t>25 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-3-ambientes-en-alquiler-av-cordoba-4340-edificio-58136973.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=16</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-monoambiente-57956527.html?n_src=Listado&amp;n_pg=1&amp;n_pos=17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Palermo, Capital Federal</t>
+          <t>Botánico, Palermo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USD 500</t>
+          <t>USD 1.600</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>115 m² tot.3 amb.2 dorm.2 baños</t>
+          <t>69 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-las-canitas-dueno-directo-precio-paquete-todo-incluido-58136991.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=17</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-amoblado-renovado-impecable!-57457140.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>San Telmo, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$ 700</t>
+          <t>USD 1.600</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>60 m² tot.</t>
+          <t>110 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-depto-3-ambientes-58136980.html?n_src=Listado&amp;n_pg=1&amp;n_pos=18</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-amplio-y-luminoso-depto-amoblado-58145294.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=19</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>San Telmo, Capital Federal</t>
+          <t>Las Cañitas, Palermo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$ 700</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>60 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>28 m² tot.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-departamento-de-3-ambientes-58136974.html?n_src=Listado&amp;n_pg=1&amp;n_pos=19</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-de-1-amb.-sin-muebles-con-balcon-aterrazado-58145218.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Palermo Soho, Palermo</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 1.050.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>35 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>70 m² tot.3 amb.2 dorm.2 baños</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dpto-zona-up-utn-58136939.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=20</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-3amb-villa-santa-rita-54617551.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=21</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Villa Devoto, Capital Federal</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$ 1.100.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>84 m² tot.4 amb.3 dorm.1 baño</t>
+          <t>36 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-4-ambientes-villa-devoto.-58136855.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=21</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-monoambiente-con-onda-50905114.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Villa del Parque, Capital Federal</t>
+          <t>Monserrat, Capital Federal</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$ 399.000</t>
+          <t>USD 900</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>33 m² tot.1 dorm.</t>
+          <t>80 m² tot.4 amb.3 dorm.2 baños</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-ambiente-c-balcon-a-1-cdra.-metrobus-58136899.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=22</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-san-telmo-alquiler-4-ambientes-amoblado-3-habitaciones-58006093.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Villa del Parque, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$ 870.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>68 m² tot.3 amb.2 dorm.2 baños</t>
+          <t>70 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquila-3-ambientes-en-esquina-con-58136872.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=23</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-totalmente-amueblado-58144241.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Parque Rivadavia, Caballito</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$ 660.000</t>
+          <t>$ 1.200.000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>57 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>65 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-villa-urquiza-hermoso-2-ambientes-a-la-53482853.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=24</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-caballito-alquiler-departamento-2-habitaciones-58006398.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Parque Chacabuco, Capital Federal</t>
+          <t>San Telmo, Capital Federal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$ 1.200.000</t>
+          <t>USD 900</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>90 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
+          <t>62 m² tot.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamen-4-amb.-dependencia-cochera-e.-mitre-1100-49027222.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=25</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-amplio-y-luminoso-departamento-3-ambientes-nuevo-san-58144636.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=26</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Villa Santa Rita, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$ 640.000</t>
+          <t>USD 550</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>49 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>63 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-como-departamento-2do-piso-al-frente-todo-luz.-58136795.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=26</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-con-balcon-en-alquiler-58144503.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Villa Devoto, Capital Federal</t>
+          <t>Villa Crespo, Capital Federal</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>40 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>33 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-devoto-dueno-alquila-2-ambientes-40-m.-balcon-frances-58136775.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=27</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-amplio-en-piso-alto-con-piscina-sum-y-58111110.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Coghlan, Capital Federal</t>
+          <t>Núñez, Capital Federal</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>USD 1.800</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>143 m² tot.5 amb.2 dorm.3 baños1 coch.</t>
+          <t>45 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-departamento-sin-comision!-57784595.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-departamento-de-2-ambientes-en-nunez-55483583.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=29</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Retiro, Capital Federal</t>
+          <t>Palermo Soho, Palermo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1062,34 +1062,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>42 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>46 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-cerca-de-retiro-58136752.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=29</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Balvanera, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>$ 650.000</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-en-balvanera-3-ambientes-2-dorm.-58136737.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=30</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelentes-2-ambientes-amenities-apto-48141117.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,95 +458,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Caballito, Capital Federal</t>
+          <t>Las Cañitas, Palermo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>USD 880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>85 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>70 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-depto-amoblado-hermoso-capital-federal-duena-58148247.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-3-ambientes-a-m-del-campo-de-polo-58040816.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USD 600</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>38 m² tot.</t>
+          <t>70 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-amueblado-en-villa-urquiza-58147875.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=2</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-busco-inquilino-responsable-lo-mas-antes-posible-58192829.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Centro / Microcentro, Capital Federal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>USD 400</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>65 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>31 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-recoleta-58147406.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=4</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-luminoso-departamento-full-equipado.-56002016.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Balvanera, Capital Federal</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$ 519.999</t>
+          <t>$ 70</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>40 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-1-ambiente-y-medio-en-excelente-ubicacion-58146418.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=5</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-duena-directa-58191676.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Balvanera, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -561,249 +561,249 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-luminoso-2-ambientes-capital-federal-dueno-58147358.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=6</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa--recoleta-alquilo-hermoso-departamento-totalmente-58191669.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Parque Avellaneda, Capital Federal</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$ 780.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>68 m² tot.2 dorm.1 baño</t>
+          <t>30 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-frente-a-parque-avellaneda-de-3-amb-58147163.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=7</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dpto-2-amb-villa-del-parque-57620559.html?n_src=Listado&amp;n_pg=1&amp;n_pos=6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Palermo Soho, Palermo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>$ 340.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>80 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>47 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-boedo-58147152.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-dpto-en-palermo-58191652.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Botánico, Palermo</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$ 800.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>49 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>60 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-ambientes.-2-piso.-apto-vivienda.-apto-profesional-52493729.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=9</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-r-dueno-directo-58191642.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Balvanera, Capital Federal</t>
+          <t>Flores, Capital Federal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 540.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>37 m² tot.1 amb.1 baño</t>
+          <t>40 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-electrico-expensas-incluyen-aysa-y-abl-58145737.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=10</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-2-ambientes-flores-dueno-apto-profesional-56842473.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Primera Junta, Caballito</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 675.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>42 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>35 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-en-flores-58145795.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=11</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-dividido-con-balcon-en-caballito-51583602.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Villa del Parque, Capital Federal</t>
+          <t>Villa Devoto, Capital Federal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 900.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>47 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>68 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-amb.-sin-expensas-dueno-alquila-58145707.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=13</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-3-ambientes-villa-devoto-56966136.html?n_src=Listado&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saavedra, Capital Federal</t>
+          <t>San Nicolás, Capital Federal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 1.300</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>60 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>74 m² tot.4 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-loft-amplio-electrico-58145414.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=14</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-4-ambientes-con-posibilidad-de-3-58107362.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Liniers, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>29 m² tot.1 amb.1 baño</t>
+          <t>55 m² tot.3 amb.2 dorm.3 baños1 coch.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-mono-ambiente-a-estrenar-58145530.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=15</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depa-lujo-recoleta-58191397.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Saavedra, Capital Federal</t>
+          <t>Caballito Sur, Caballito</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$ 1.600.000</t>
+          <t>$ 1.300.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>65 m² tot.3 amb.2 dorm.2 baños1 coch.</t>
+          <t>57 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-super-luminoso-en-saavedra-58145409.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=16</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2amb-dosplaza-58190397.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Liniers, Capital Federal</t>
+          <t>Balvanera, Capital Federal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>25 m² tot.1 amb.1 baño</t>
+          <t>65 m² tot.3 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-monoambiente-57956527.html?n_src=Listado&amp;n_pg=1&amp;n_pos=17</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-amoblado-58190721.html?n_src=Listado&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Botánico, Palermo</t>
+          <t>Saavedra, Capital Federal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USD 1.600</t>
+          <t>USD 700</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>69 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>65 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-amoblado-renovado-impecable!-57457140.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=18</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-departamento-super-luminoso-en-saavedra!-54596556.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
@@ -815,105 +815,105 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>USD 1.600</t>
+          <t>$ 1.200.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>110 m² tot.4 amb.3 dorm.1 baño</t>
+          <t>65 m² tot.3 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-amplio-y-luminoso-depto-amoblado-58145294.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=19</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-3-ambientes-en-recoleta-piso-3-balcon-corrido-58188689.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Las Cañitas, Palermo</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28 m² tot.</t>
+          <t>45 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-de-1-amb.-sin-muebles-con-balcon-aterrazado-58145218.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=20</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-al-frente-impecable-57026119.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Villa del Parque, Capital Federal</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$ 1.050.000</t>
+          <t>$ 1.000.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>70 m² tot.3 amb.2 dorm.2 baños</t>
+          <t>70 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-3amb-villa-santa-rita-54617551.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=21</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-alquiler-58189082.html?n_src=Listado&amp;n_pg=1&amp;n_pos=19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 560.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>36 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>35 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-monoambiente-con-onda-50905114.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-titular:-dueno-directo-dto.-35-m-sup2--balcon-al-58188908.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Monserrat, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>USD 900</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>80 m² tot.4 amb.3 dorm.2 baños</t>
+          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-san-telmo-alquiler-4-ambientes-amoblado-3-habitaciones-58006093.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=23</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquila-hermoso-departamento-excelente-58188919.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=21</t>
         </is>
       </c>
     </row>
@@ -925,149 +925,193 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 1.300.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>70 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
+          <t>118 m² tot.4 amb.3 dorm.2 baños</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-totalmente-amueblado-58144241.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=24</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-junin-1032-entre-av-santa-fe-y-m.-t-de-alvear.-58188900.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Parque Rivadavia, Caballito</t>
+          <t>Palermo, Capital Federal</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$ 1.200.000</t>
+          <t>USD 500</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>65 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>115 m² tot.3 amb.2 dorm.2 baños</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-caballito-alquiler-departamento-2-habitaciones-58006398.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=25</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-las-canitas-dueno-directo-precio-paquete-todo-incluido-58188892.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>San Telmo, Capital Federal</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>USD 900</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>62 m² tot.</t>
+          <t>60 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-amplio-y-luminoso-departamento-3-ambientes-nuevo-san-58144636.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=26</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-departamento-de-3-ambientes-x-esc.-58188880.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>USD 550</t>
+          <t>$ 1.250.000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>63 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>86 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-con-balcon-en-alquiler-58144503.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=27</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa--dueno-alquila!-hermoso-departamento-de-3-ambientes-51612095.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Villa Crespo, Capital Federal</t>
+          <t>Belgrano C, Belgrano</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>USD 1.590</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>33 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>107 m² tot.5 amb.3 dorm.2 baños1 coch.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-amplio-en-piso-alto-con-piscina-sum-y-58111110.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=28</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-semi-piso-luminoso-en-belgrano-cochera.-3-57784080.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Núñez, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>45 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>34 m² tot.2 amb.1 baño</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-departamento-de-2-ambientes-en-nunez-55483583.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=29</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-ambientes-en-flores-norte-dueno-directo-58188632.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=27</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Palermo Soho, Palermo</t>
+          <t>Palermo, Capital Federal</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>USD 800</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>46 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>52 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelentes-2-ambientes-amenities-apto-48141117.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=30</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-ambientes-luminoso-con-cochera-apto-profesional-58188683.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chacarita, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>$ 480.000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>44 m² tot.2 amb.1 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dueno-directo-departamento-excelente-58176605.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Recoleta, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>$ 750.000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>50 m² tot.2 amb.1 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-se-alquila-depto-2-ambientes-con-amplio-blacon-terraza-58188676.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,161 +458,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Las Cañitas, Palermo</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>USD 880</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>70 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-3-ambientes-a-m-del-campo-de-polo-58040816.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-58259590.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>La Paternal, Capital Federal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 520.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>70 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
+          <t>46 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-busco-inquilino-responsable-lo-mas-antes-posible-58192829.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=2</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-lindisimo-2-ambientes-amplio-en-la-paternal-58259571.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Centro / Microcentro, Capital Federal</t>
+          <t>Palermo Hollywood, Palermo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USD 400</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31 m² tot.1 amb.1 baño</t>
+          <t>34 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-luminoso-departamento-full-equipado.-56002016.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=3</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-a-estrenar-58258934.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Lomas de Núñez, Núñez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$ 70</t>
+          <t>USD 2.100</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>110 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-duena-directa-58191676.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=4</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-moderno-y-luminoso-duplex-4-ambientes-y-1-2-vista-rio-58258380.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>La Paternal, Capital Federal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>USD 950</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>60 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>74 m² tot.3 amb.2 dorm.2 baños1 coch.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa--recoleta-alquilo-hermoso-departamento-totalmente-58191669.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=5</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-3-amb-en-torre-nova-58258648.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Villa del Parque, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>USD 900</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>55 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dpto-2-amb-villa-del-parque-57620559.html?n_src=Listado&amp;n_pg=1&amp;n_pos=6</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-amoblado-en-alquiler-recoleta-58258790.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Palermo Soho, Palermo</t>
+          <t>Palermo Viejo, Palermo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 340.000</t>
+          <t>$ 570.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>47 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
+          <t>43 m² tot.2 amb.1 baño</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-dpto-en-palermo-58191652.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=7</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-amb-sobre-av-cordoba-muy-luminoso-58258777.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -622,63 +622,63 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>60 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-r-dueno-directo-58191642.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-urgente-busco-inquilino-imediato-58258488.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Flores, Capital Federal</t>
+          <t>Almagro, Capital Federal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$ 540.000</t>
+          <t>$ 590.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>40 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>52 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-2-ambientes-flores-dueno-apto-profesional-56842473.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=9</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-fte.-panoramica-piso-11-balcon-terraza-58258416.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Primera Junta, Caballito</t>
+          <t>Chacarita, Capital Federal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$ 675.000</t>
+          <t>$ 1.080.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>35 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>75 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-dividido-con-balcon-en-caballito-51583602.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=10</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-en-locacion-57762271.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Villa Devoto, Capital Federal</t>
+          <t>Villa Crespo, Capital Federal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -688,34 +688,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>68 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>50 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-3-ambientes-villa-devoto-56966136.html?n_src=Listado&amp;n_pg=1&amp;n_pos=11</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dpto-2-ambientes-frias-406-caba-58258040.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>San Nicolás, Capital Federal</t>
+          <t>Saavedra, Capital Federal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 1.300</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>74 m² tot.4 amb.2 dorm.1 baño</t>
+          <t>32 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-4-ambientes-con-posibilidad-de-3-58107362.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=12</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-en-alquiler-54422589.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
@@ -737,73 +737,73 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depa-lujo-recoleta-58191397.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=13</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depa-lujo-recoleta-58258147.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=14</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Caballito Sur, Caballito</t>
+          <t>Almagro, Capital Federal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$ 1.300.000</t>
+          <t>$ 1.000.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>57 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>120 m² tot.4 amb.3 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2amb-dosplaza-58190397.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=14</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-almagro-4-amb.-120-m-sup2-58258075.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Balvanera, Capital Federal</t>
+          <t>San Nicolás, Capital Federal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>65 m² tot.3 amb.3 dorm.1 baño</t>
+          <t>56 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-amoblado-58190721.html?n_src=Listado&amp;n_pg=1&amp;n_pos=15</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-dos-ambientes-oportunidad-52720909.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Saavedra, Capital Federal</t>
+          <t>Lomas de Núñez, Núñez</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USD 700</t>
+          <t>$ 400.000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>65 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>30 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-departamento-super-luminoso-en-saavedra!-54596556.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=16</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-av-cabildo-por-dueno-58257952.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=17</t>
         </is>
       </c>
     </row>
@@ -815,303 +815,237 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$ 1.200.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>65 m² tot.3 amb.3 dorm.1 baño</t>
+          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-3-ambientes-en-recoleta-piso-3-balcon-corrido-58188689.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=17</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquila-hermoso-departamento-excelente-58257909.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=18</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>45 m² tot.1 amb.1 baño</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-al-frente-impecable-57026119.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=18</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-lindo-2-ambiente-58257767.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=19</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Retiro, Capital Federal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$ 1.000.000</t>
+          <t>USD 620</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>70 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
+          <t>35 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-alquiler-58189082.html?n_src=Listado&amp;n_pg=1&amp;n_pos=19</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-espectacular-departamento-reciclado-a-nuevo.-alquiler-56824097.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=21</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Primera Junta, Caballito</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$ 560.000</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>35 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>29 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-titular:-dueno-directo-dto.-35-m-sup2--balcon-al-58188908.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=20</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-garcia-lorca-116-118-58257565.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Palermo Chico, Palermo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>USD 670</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>44 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquila-hermoso-departamento-excelente-58188919.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=21</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-palermo-chico-depto-amoblado-full-amenities-55208978.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Palermo Chico, Palermo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$ 1.300.000</t>
+          <t>USD 700</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>118 m² tot.4 amb.3 dorm.2 baños</t>
+          <t>44 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-junin-1032-entre-av-santa-fe-y-m.-t-de-alvear.-58188900.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-palermo-chico-depto-amoblado-full-amenities-57932653.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Palermo, Capital Federal</t>
+          <t>Palermo Chico, Palermo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>USD 500</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>115 m² tot.3 amb.2 dorm.2 baños</t>
+          <t>30 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-las-canitas-dueno-directo-precio-paquete-todo-incluido-58188892.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=23</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-de-2-ambientes.-apto-58257336.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=26</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Villa del Parque, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>60 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>35 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-departamento-de-3-ambientes-x-esc.-58188880.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=24</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-dos-ambientes-en-barrio-norte-57697376.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Palermo, Capital Federal</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$ 1.250.000</t>
+          <t>USD 1.200</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>86 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>62 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa--dueno-alquila!-hermoso-departamento-de-3-ambientes-51612095.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=25</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-amoblado-y-refaccionado-con-58257240.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=28</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Belgrano C, Belgrano</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>USD 1.590</t>
+          <t>$ 1.080.000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>107 m² tot.5 amb.3 dorm.2 baños1 coch.</t>
+          <t>35 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-semi-piso-luminoso-en-belgrano-cochera.-3-57784080.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=26</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-muy-lindo-a-extrenar-58257122.html?n_src=Listado&amp;n_pg=1&amp;n_pos=29</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Belgrano, Capital Federal</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>USD 900</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>34 m² tot.2 amb.1 baño</t>
+          <t>66 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-ambientes-en-flores-norte-dueno-directo-58188632.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=27</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Palermo, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>USD 800</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>52 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-ambientes-luminoso-con-cochera-apto-profesional-58188683.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Chacarita, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>$ 480.000</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>44 m² tot.2 amb.1 dorm.1 baño</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dueno-directo-departamento-excelente-58176605.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=29</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Recoleta, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>$ 750.000</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>50 m² tot.2 amb.1 dorm.1 baño</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-se-alquila-depto-2-ambientes-con-amplio-blacon-terraza-58188676.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=30</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-amb.-semi-amoblado-c-balcon-aterrazado-y-cochera-57854291.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Palermo Chico, Palermo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,254 +468,254 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>38 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-58259590.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-full-equip.-2amb-duena-directa!-58271047.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>La Paternal, Capital Federal</t>
+          <t>Núñez, Capital Federal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$ 520.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>46 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>52 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-lindisimo-2-ambientes-amplio-en-la-paternal-58259571.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=3</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-equipado-2amb-duena-directa-58271036.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Palermo Hollywood, Palermo</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>34 m² tot.1 amb.1 baño</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-a-estrenar-58258934.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=4</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-buenas-condiciones-recoleta-58271035.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lomas de Núñez, Núñez</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USD 2.100</t>
+          <t>$ 900</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>110 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
+          <t>60 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-moderno-y-luminoso-duplex-4-ambientes-y-1-2-vista-rio-58258380.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=5</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-3-ambientes-amoblado-en-belgrano-c-piso-12-al-frente-58258260.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>La Paternal, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USD 950</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>74 m² tot.3 amb.2 dorm.2 baños1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-3-amb-en-torre-nova-58258648.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=6</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-amueblado-recoleta-58270918.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>USD 900</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>55 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-amoblado-en-alquiler-recoleta-58258790.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=7</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58270740.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Palermo Viejo, Palermo</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 570.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>43 m² tot.2 amb.1 baño</t>
+          <t>70 m² tot.2 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-amb-sobre-av-cordoba-muy-luminoso-58258777.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=8</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-hermoso-en-alquiler-58269243.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=12</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Centro / Microcentro, Capital Federal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>22 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-urgente-busco-inquilino-imediato-58258488.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-al-frente-sobre-av-cordoba-al-800-58268967.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Almagro, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$ 590.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>52 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>33 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-fte.-panoramica-piso-11-balcon-terraza-58258416.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=10</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-luminoso-2-amb-talcahuano-y-av-santa-fe-58268480.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=14</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chacarita, Capital Federal</t>
+          <t>Belgrano C, Belgrano</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$ 1.080.000</t>
+          <t>$ 790.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>75 m² tot.4 amb.3 dorm.1 baño</t>
+          <t>41 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-en-locacion-57762271.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=11</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-alquiler-belgrano-58268088.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Villa Crespo, Capital Federal</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$ 900.000</t>
+          <t>$ 700</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>50 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>63 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dpto-2-ambientes-frias-406-caba-58258040.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=12</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-dueno-directo-2-ambientes-58268052.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saavedra, Capital Federal</t>
+          <t>Parque Rivadavia, Caballito</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>USD 450</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>32 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>33 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-en-alquiler-54422589.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=13</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-en-el-corazon-de-caballito-apto-profesional-55678687.html?n_src=Listado&amp;n_pg=1&amp;n_pos=17</t>
         </is>
       </c>
     </row>
@@ -727,127 +727,127 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$ 800.000</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>55 m² tot.3 amb.2 dorm.3 baños1 coch.</t>
+          <t>40 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depa-lujo-recoleta-58258147.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=14</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-1-ambiente-recoleta-pte-jose-e.-uriburu-1600-45152694.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=18</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Almagro, Capital Federal</t>
+          <t>Villa Santa Rita, Capital Federal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$ 1.000.000</t>
+          <t>$ 470.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>120 m² tot.4 amb.3 dorm.1 baño1 coch.</t>
+          <t>30 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-almagro-4-amb.-120-m-sup2-58258075.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=15</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-excelente-monoambiente-mascota-muy-52703056.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>San Nicolás, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>56 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>48 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-dos-ambientes-oportunidad-52720909.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=16</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-alquiler-3-ambientes-flores-58267648.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lomas de Núñez, Núñez</t>
+          <t>Constitución, Capital Federal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$ 400.000</t>
+          <t>$ 635.000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30 m² tot.1 amb.1 baño</t>
+          <t>38 m² tot.1 amb.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-av-cabildo-por-dueno-58257952.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=17</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-amplio-58267684.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=21</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Parque Chacabuco, Capital Federal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>USD 800</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>74 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquila-hermoso-departamento-excelente-58257909.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=18</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-moderno-departamento-de-2-amb-de-74-m-amueblado-58267744.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Caballito Norte, Caballito</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 980.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>74 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-lindo-2-ambiente-58257767.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=19</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-oportunidad-semipiso-al-frente-muy-luminoso-3-57821454.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=23</t>
         </is>
       </c>
     </row>
@@ -859,193 +859,149 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USD 620</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>35 m² tot.1 amb.1 baño</t>
+          <t>45 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-espectacular-departamento-reciclado-a-nuevo.-alquiler-56824097.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=21</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-calm-studio-un-refugio-en-el-downtown-amoblado-57575192.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Primera Junta, Caballito</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 380.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>29 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>28 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-garcia-lorca-116-118-58257565.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=22</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-un-ambiente-amplio-recoleta-52804556.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Palermo Chico, Palermo</t>
+          <t>Villa Crespo, Capital Federal</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>USD 670</t>
+          <t>USD 650</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>44 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>30 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-palermo-chico-depto-amoblado-full-amenities-55208978.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=24</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-a-estrenar.-villa-crespo-58267310.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=26</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Palermo Chico, Palermo</t>
+          <t>La Paternal, Capital Federal</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>USD 700</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>44 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>35 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-palermo-chico-depto-amoblado-full-amenities-57932653.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=25</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-3-amb-en-la-paternal-58256133.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Palermo Chico, Palermo</t>
+          <t>Palermo Viejo, Palermo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$ 800.000</t>
+          <t>USD 600</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>30 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>47 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-de-2-ambientes.-apto-58257336.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=26</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-amplio-monoambiente-58197574.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Palermo, Capital Federal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>35 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>45 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-dos-ambientes-en-barrio-norte-57697376.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=27</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-luminoso-mini-loft-en-alto-palermo-58266486.html?n_src=Listado&amp;n_pg=1&amp;n_pos=29</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Palermo, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>USD 1.200</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>62 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>55 m² tot.3 amb.2 dorm.3 baños1 coch.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-amoblado-y-refaccionado-con-58257240.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=28</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Villa del Parque, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>$ 1.080.000</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>35 m² tot.3 amb.2 dorm.1 baño</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-muy-lindo-a-extrenar-58257122.html?n_src=Listado&amp;n_pg=1&amp;n_pos=29</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Belgrano, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>USD 900</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>66 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-amb.-semi-amoblado-c-balcon-aterrazado-y-cochera-57854291.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=30</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depa-lujo-recoleta-58266650.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,22 +458,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Palermo Chico, Palermo</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 550</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>38 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-full-equip.-2amb-duena-directa!-58271047.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-dos-habitaciones-recoleta-58283447.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
@@ -495,513 +495,469 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-equipado-2amb-duena-directa-58271036.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=4</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-en-alquiler-perfecto-estado-duena-direca-58283397.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Palermo, Capital Federal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-buenas-condiciones-recoleta-58271035.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=5</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alq-departamento-2-ambientes-piso-alto-super-57990539.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Palermo Soho, Palermo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$ 900</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>60 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>38 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-3-ambientes-amoblado-en-belgrano-c-piso-12-al-frente-58258260.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=7</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-dueno-directo-excelente-estado-58283250.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Villa Lugano, Capital Federal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>40 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-amueblado-recoleta-58270918.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=8</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-excelente-dto-en-lugano-bajas-expensas-57600817.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Palermo Chico, Palermo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>USD 1.950</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>100 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes-58270740.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-lujoso-semipiso-alto-palermo-todo-amoblado-57826014.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>70 m² tot.2 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-hermoso-en-alquiler-58269243.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=12</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-lindo-dos-ambientes-duenos-directo.-58283134.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Centro / Microcentro, Capital Federal</t>
+          <t>Flores Norte, Flores</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>USD 750</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>85 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-al-frente-sobre-av-cordoba-al-800-58268967.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=13</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-alquiler-en-flores-3-habitaciones-y-58282451.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Retiro, Capital Federal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 950.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>33 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>60 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-luminoso-2-amb-talcahuano-y-av-santa-fe-58268480.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=14</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excel-3-amb-reciclado-en-inmejorable-ubicacion-en-58164266.html?n_src=Listado&amp;n_pg=1&amp;n_pos=12</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Belgrano C, Belgrano</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$ 790.000</t>
+          <t>$ 700</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>41 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>63 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-alquiler-belgrano-58268088.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=15</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-dueno-directo-58282683.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Núñez, Capital Federal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$ 700</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>63 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>60 m² tot.4 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-dueno-directo-2-ambientes-58268052.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=16</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-departamento-58282367.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Parque Rivadavia, Caballito</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>USD 450</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>33 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>75 m² tot.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-en-el-corazon-de-caballito-apto-profesional-55678687.html?n_src=Listado&amp;n_pg=1&amp;n_pos=17</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes.-58282407.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Mataderos, Capital Federal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>40 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>57 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-1-ambiente-recoleta-pte-jose-e.-uriburu-1600-45152694.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=18</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-de-dos-ambientes.-apto-profesional-58281846.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Villa Santa Rita, Capital Federal</t>
+          <t>Coghlan, Capital Federal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$ 470.000</t>
+          <t>$ 950.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>30 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>70 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-excelente-monoambiente-mascota-muy-52703056.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=19</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-impecable-3-ambientes-58282049.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Belgrano C, Belgrano</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>USD 900</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>48 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>49 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-alquiler-3-ambientes-flores-58267648.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=20</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-increible-departamento-en-la-mejor-zona-de-belgrano-58278970.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=18</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Constitución, Capital Federal</t>
+          <t>Balvanera, Capital Federal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$ 635.000</t>
+          <t>$ 1.200.000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>38 m² tot.1 amb.</t>
+          <t>100 m² tot.4 amb.3 dorm.3 baños1 coch.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-amplio-58267684.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=21</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-3amb-c-dep-cochera-incluida-100-m-sup2-58281560.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=19</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Parque Chacabuco, Capital Federal</t>
+          <t>Villa Crespo, Capital Federal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>USD 800</t>
+          <t>$ 900.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>74 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>50 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-moderno-departamento-de-2-amb-de-74-m-amueblado-58267744.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-2-ambientes-al-frente-57177606.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=20</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Caballito Norte, Caballito</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$ 980.000</t>
+          <t>$ 470.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>74 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>29 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-oportunidad-semipiso-al-frente-muy-luminoso-3-57821454.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=23</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-luminoso-58267043.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Retiro, Capital Federal</t>
+          <t>Palermo Hollywood, Palermo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>USD 1.100</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>45 m² tot.1 amb.1 baño</t>
+          <t>85 m² tot.3 amb.2 dorm.2 baños</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-calm-studio-un-refugio-en-el-downtown-amoblado-57575192.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=24</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-hermoso-departamento-en-palermo-58281565.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Núñez, Capital Federal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$ 380.000</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>28 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>50 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-un-ambiente-amplio-recoleta-52804556.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=25</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-interno-en-nunez-58281437.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Villa Crespo, Capital Federal</t>
+          <t>Palermo, Capital Federal</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>USD 650</t>
+          <t>$ 1.100.000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>30 m² tot.1 amb.1 baño</t>
+          <t>40 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-a-estrenar.-villa-crespo-58267310.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=26</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquiler-impecable-depto-2-ambientes-56600014.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>La Paternal, Capital Federal</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>35 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-3-amb-en-la-paternal-58256133.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=27</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-de-3-ambientes-disponible-belgrano-r-58281383.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Palermo Viejo, Palermo</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>USD 600</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>47 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-amplio-monoambiente-58197574.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=28</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Palermo, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>$ 600.000</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>45 m² tot.1 amb.1 baño</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-luminoso-mini-loft-en-alto-palermo-58266486.html?n_src=Listado&amp;n_pg=1&amp;n_pos=29</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Recoleta, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>$ 800.000</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>55 m² tot.3 amb.2 dorm.3 baños1 coch.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depa-lujo-recoleta-58266650.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=30</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-boedo-disponible-2-ambientes-58281358.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=26</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,501 +463,633 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$ 550</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>40 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-departamento-dos-habitaciones-recoleta-58283447.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-luminoso-58323419.html?n_src=Listado&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Núñez, Capital Federal</t>
+          <t>Villa Crespo, Capital Federal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 590.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>52 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>43 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-en-alquiler-perfecto-estado-duena-direca-58283397.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=2</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-amb-7-piso-ctfe-balcon-todo-luz-57235446.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Palermo, Capital Federal</t>
+          <t>San Nicolás, Capital Federal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>USD 500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>230 m² tot.5 amb.4 dorm.4 baños</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alq-departamento-2-ambientes-piso-alto-super-57990539.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=3</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-penthouse-en-alquiler-por-dormitorio-para-estudiantes-58329620.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palermo Soho, Palermo</t>
+          <t>San Nicolás, Capital Federal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>38 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
+          <t>80 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-dueno-directo-excelente-estado-58283250.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=4</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-3-ambientes-a-la-calle-semipiso-balcon-2-dorm.-gran-48861857.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Villa Lugano, Capital Federal</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$ 500.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>40 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>30 m² tot.1 amb.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-excelente-dto-en-lugano-bajas-expensas-57600817.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=5</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-alquiler-villa-urquiza-excelente-estado.-58330213.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Palermo Chico, Palermo</t>
+          <t>Palermo, Capital Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>USD 1.950</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>100 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
+          <t>60 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-lujoso-semipiso-alto-palermo-todo-amoblado-57826014.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=7</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-apto-profesional-40113948.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Belgrano R, Belgrano</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>60 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-lindo-dos-ambientes-duenos-directo.-58283134.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=8</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-r-dueno-directo-58330126.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Flores Norte, Flores</t>
+          <t>Caballito Norte, Caballito</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USD 750</t>
+          <t>$ 720.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>85 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
+          <t>48 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-alquiler-en-flores-3-habitaciones-y-58282451.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=11</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-monoambiente-dueno-directo-perfectamente-54389437.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Retiro, Capital Federal</t>
+          <t>Belgrano Chico, Belgrano</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$ 950.000</t>
+          <t>USD 800</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>60 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>52 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excel-3-amb-reciclado-en-inmejorable-ubicacion-en-58164266.html?n_src=Listado&amp;n_pg=1&amp;n_pos=12</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-excelente-departamento-2-amb.-c-cochera-58328655.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Las Cañitas, Palermo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$ 700</t>
+          <t>$ 1.100.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>63 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>65 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-dueno-directo-58282683.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=13</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-semipiso-2-amb-65-m-sup2--al-frente-la-imprenta-las-58328559.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Núñez, Capital Federal</t>
+          <t>Villa Devoto, Capital Federal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 1.300.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>60 m² tot.4 amb.2 dorm.1 baño1 coch.</t>
+          <t>66 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-departamento-58282367.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=14</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-dpto-3-ambientes-remodelado-a-nuevo-57097600.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Palermo Chico, Palermo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 980.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>75 m² tot.</t>
+          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-dos-ambientes.-58282407.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=15</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-imperdible-2-ambientes-amueblado-y-equipado!-todo-58328111.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mataderos, Capital Federal</t>
+          <t>Palermo Soho, Palermo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>USD 750</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>57 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-de-dos-ambientes.-apto-profesional-58281846.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=16</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-2-ambientes-piscina-balcon-laundry-55682079.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Coghlan, Capital Federal</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$ 950.000</t>
+          <t>$ 1.500.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>70 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>77 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-impecable-3-ambientes-58282049.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=17</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-3-amb.-c-cochera-en-villa-urquiza-51082491.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Belgrano C, Belgrano</t>
+          <t>Colegiales, Capital Federal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>USD 900</t>
+          <t>USD 600</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>49 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>34 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-increible-departamento-en-la-mejor-zona-de-belgrano-58278970.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=18</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-53654588.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Balvanera, Capital Federal</t>
+          <t>Monserrat, Capital Federal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$ 1.200.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>100 m² tot.4 amb.3 dorm.3 baños1 coch.</t>
+          <t>26 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-3amb-c-dep-cochera-incluida-100-m-sup2-58281560.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=19</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-monoambiente-en-congreso-ideal-prof.-58328008.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Villa Crespo, Capital Federal</t>
+          <t>San Telmo, Capital Federal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$ 900.000</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>50 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>43 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-2-ambientes-al-frente-57177606.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=20</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dueno-directo-san-telmo-57821480.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Caballito Sur, Caballito</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$ 470.000</t>
+          <t>$ 1.000.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>29 m² tot.1 amb.1 baño</t>
+          <t>48 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-luminoso-58267043.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=21</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-semip-nuevo-58327747.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Palermo Hollywood, Palermo</t>
+          <t>Caballito, Capital Federal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USD 1.100</t>
+          <t>$ 730.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>85 m² tot.3 amb.2 dorm.2 baños</t>
+          <t>42 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-hermoso-departamento-en-palermo-58281565.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=22</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-monoambiente-en-caballito-con-cochera-fija-58271720.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Núñez, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$ 800.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>50 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-interno-en-nunez-58281437.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=23</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-para-familia-tranquila-58327732.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Palermo, Capital Federal</t>
+          <t>San Cristobal, Capital Federal</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$ 1.100.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>40 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquiler-impecable-depto-2-ambientes-56600014.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=24</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-duena-directa-san-cristobal-58327653.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 1.300.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-de-3-ambientes-disponible-belgrano-r-58281383.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=25</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-3-amb-con-dep-integrada-o-escritorio-impecable-58325963.html?n_src=Listado&amp;n_pg=1&amp;n_pos=22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Boedo, Capital Federal</t>
+          <t>Palermo Viejo, Palermo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>70 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-boedo-disponible-2-ambientes-58281358.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=26</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-palermo-duena-directa-58327588.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Villa Santa Rita, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>$ 600.000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>32 m² tot.1 amb.1 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-mono-ambiente-muy-luminoso-con-amenities-villa-santa-58327135.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Monserrat, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>$ 700.000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>70 m² tot.4 amb.3 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-de-3-ambientes-con-balcon-dependencia-57855678.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=26</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Colegiales, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>$ 1.200.000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>86 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-amb-c-balcon-al-frente-58325467.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=27</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>San Cristobal, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>$ 650.000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>35 m² tot.1 amb.1 dorm.1 baño</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-monoambiente-amoblado-av-independencia-2600-58320529.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=28</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Belgrano R, Belgrano</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>$ 1.700.000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>76 m² tot.3 amb.2 dorm.2 baños1 coch.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-3amb-amplios-con-amenities-y-cochera-fija-cubierta-58326573.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=29</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Congreso, Capital Federal</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>$ 500.000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>33 m² tot.1 amb.1 baño</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-monoambiente-semipiso-divisible-57384352.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>

--- a/Reporte_Oportunidades_InmoData.xlsx
+++ b/Reporte_Oportunidades_InmoData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 580.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,322 +473,322 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-luminoso-58323419.html?n_src=Listado&amp;n_pg=1&amp;n_pos=1</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-barrio-norte-2-ambientes-dueno-directo-58412611.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Villa Crespo, Capital Federal</t>
+          <t>Belgrano Chico, Belgrano</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$ 590.000</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>43 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>44 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-amb-7-piso-ctfe-balcon-todo-luz-57235446.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=2</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-exc.-estado-dueno-alquila-58412597.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>San Nicolás, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USD 500</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>230 m² tot.5 amb.4 dorm.4 baños</t>
+          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-penthouse-en-alquiler-por-dormitorio-para-estudiantes-58329620.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=3</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-2-ambientes-luminosos-en-recoleta-58412744.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>San Nicolás, Capital Federal</t>
+          <t>Almagro Norte, Almagro</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>USD 1.300</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>80 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>120 m² tot.4 amb.3 dorm.2 baños1 coch.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-3-ambientes-a-la-calle-semipiso-balcon-2-dorm.-gran-48861857.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=4</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dept-4-ambientes-con-cochera-3-banos-3-dorm.-balcon-58412685.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Belgrano Chico, Belgrano</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30 m² tot.1 amb.</t>
+          <t>44 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-alquiler-villa-urquiza-excelente-estado.-58330213.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=5</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-exc-estado-dueno-alquila-58412622.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Palermo, Capital Federal</t>
+          <t>Belgrano, Capital Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 875.000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>60 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>58 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-apto-profesional-40113948.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=6</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-monoambiente-divisible-con-terraza-propia-58316679.html?n_src=Listado&amp;n_pills=SUM&amp;n_pg=1&amp;n_pos=6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Belgrano R, Belgrano</t>
+          <t>Villa Santa Rita, Capital Federal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>60 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>43 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-belgrano-r-dueno-directo-58330126.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=7</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-departamento-monoambiente-c-balcon-villa-58412610.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Caballito Norte, Caballito</t>
+          <t>Naón, Mataderos</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$ 720.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>48 m² tot.1 amb.1 baño</t>
+          <t>54 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-monoambiente-dueno-directo-perfectamente-54389437.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-a-estrenar-58412577.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Belgrano Chico, Belgrano</t>
+          <t>Villa Urquiza, Capital Federal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>USD 800</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>52 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>38 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-excelente-departamento-2-amb.-c-cochera-58328655.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=9</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquiler-departamento-monoambiente-58412538.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Las Cañitas, Palermo</t>
+          <t>Palermo, Capital Federal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$ 1.100.000</t>
+          <t>USD 500</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>65 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>115 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-semipiso-2-amb-65-m-sup2--al-frente-la-imprenta-las-58328559.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=10</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-las-canitas-dueno-directo-precio-paquete-todo-incluido-58412534.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Villa Devoto, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$ 1.300.000</t>
+          <t>$ 690.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>66 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>75 m² tot.3 amb.2 dorm.2 baños1 coch.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquilo-dpto-3-ambientes-remodelado-a-nuevo-57097600.html?n_src=Listado&amp;n_pills=Terraza&amp;n_pg=1&amp;n_pos=11</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58412532.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Palermo Chico, Palermo</t>
+          <t>Palermo Nuevo, Palermo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 980.000</t>
+          <t>USD 600</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>49 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-imperdible-2-ambientes-amueblado-y-equipado!-todo-58328111.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=12</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-amplio-monoambiente-piso-alto-al-frente-con-seguridad-58412523.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Palermo Soho, Palermo</t>
+          <t>Constitución, Capital Federal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>USD 750</t>
+          <t>USD 1.500</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>42 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>110 m² tot.4 amb.3 dorm.1 baño</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-2-ambientes-piscina-balcon-laundry-55682079.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=13</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-luminoso-departamento-alq-temp-110-m-sup2--en-58412503.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Villa Urquiza, Capital Federal</t>
+          <t>Villa del Parque, Capital Federal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$ 1.500.000</t>
+          <t>$ 640.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>77 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>75 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-3-amb.-c-cochera-en-villa-urquiza-51082491.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=14</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-ambientes-58412527.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colegiales, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>USD 600</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>34 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>80 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-2-ambientes-53654588.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=15</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-amueblado-recoleta-58412226.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=18</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Monserrat, Capital Federal</t>
+          <t>Parque Rivadavia, Caballito</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -798,122 +798,122 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>26 m² tot.1 amb.1 baño</t>
+          <t>85 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-excelente-monoambiente-en-congreso-ideal-prof.-58328008.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=16</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-amueblado-duena-directa-caballito-58411857.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=19</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>San Telmo, Capital Federal</t>
+          <t>Recoleta, Capital Federal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$ 800.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>43 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>65 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-dueno-directo-san-telmo-57821480.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=17</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquila-hermoso-departamento-excelente-58411808.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=20</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Caballito Sur, Caballito</t>
+          <t>Boedo, Capital Federal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$ 1.000.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>48 m² tot.2 amb.1 dorm.1 baño</t>
+          <t>85 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-semip-nuevo-58327747.html?n_src=Listado&amp;n_pills=Pileta&amp;n_pg=1&amp;n_pos=18</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-boedo-58411619.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Caballito, Capital Federal</t>
+          <t>Almagro Sur, Almagro</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$ 730.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>42 m² tot.1 amb.1 dorm.1 baño1 coch.</t>
+          <t>32 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-monoambiente-en-caballito-con-cochera-fija-58271720.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=19</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dpto.-ideal-estudiante-58403895.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=22</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Recoleta, Capital Federal</t>
+          <t>Palermo Hollywood, Palermo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>$ 670.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>53 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-para-familia-tranquila-58327732.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=20</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-full-equipado-unica-oportunidad!-58411328.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>San Cristobal, Capital Federal</t>
+          <t>Belgrano C, Belgrano</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>USD 550</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>44 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-duena-directa-san-cristobal-58327653.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=21</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-depto-en-belgrano-2-amb-52898010.html?n_src=Listado&amp;n_pills=Permite+mascotas&amp;n_pg=1&amp;n_pos=24</t>
         </is>
       </c>
     </row>
@@ -925,171 +925,105 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$ 1.300.000</t>
+          <t>$ 1.200.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>75 m² tot.3 amb.2 dorm.1 baño</t>
+          <t>80 m² tot.3 amb.2 dorm.1 baño</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-hermoso-3-amb-con-dep-integrada-o-escritorio-impecable-58325963.html?n_src=Listado&amp;n_pg=1&amp;n_pos=22</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-amb-c-dependencia-en-alquiler-en-58411133.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Palermo Viejo, Palermo</t>
+          <t>Balvanera, Capital Federal</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>75 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
+          <t>44 m² tot.2 amb.1 dorm.1 baño1 coch.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-en-palermo-duena-directa-58327588.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=23</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-amplio-2-ambientes-con-cochera-cubierta-apto-58410830.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=27</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Villa Santa Rita, Capital Federal</t>
+          <t>Las Cañitas, Palermo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>USD 300</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>32 m² tot.1 amb.1 dorm.1 baño</t>
+          <t>22 m² tot.1 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-mono-ambiente-muy-luminoso-con-amenities-villa-santa-58327135.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=25</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-directo-alquila-monoambiente-muy-luminoso-y-58410241.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=28</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Monserrat, Capital Federal</t>
+          <t>Las Cañitas, Palermo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>USD 600</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>70 m² tot.4 amb.3 dorm.1 baño</t>
+          <t>40 m² tot.2 amb.1 dorm.1 baño</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-de-3-ambientes-con-balcon-dependencia-57855678.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=26</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-amoblado-completo-en-las-canitas-58410246.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=29</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Colegiales, Capital Federal</t>
+          <t>Núñez, Capital Federal</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$ 1.200.000</t>
+          <t>$ 590.000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>86 m² tot.3 amb.2 dorm.1 baño1 coch.</t>
+          <t>35 m² tot.1 amb.1 baño</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-3-amb-c-balcon-al-frente-58325467.html?n_src=Listado&amp;n_pills=Lavadero&amp;n_pg=1&amp;n_pos=27</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>San Cristobal, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>$ 650.000</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>35 m² tot.1 amb.1 dorm.1 baño</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-alquiler-monoambiente-amoblado-av-independencia-2600-58320529.html?n_src=Listado&amp;n_pills=Laundry&amp;n_pg=1&amp;n_pos=28</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Belgrano R, Belgrano</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>$ 1.700.000</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>76 m² tot.3 amb.2 dorm.2 baños1 coch.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-3amb-amplios-con-amenities-y-cochera-fija-cubierta-58326573.html?n_src=Listado&amp;n_pills=Parrilla&amp;n_pg=1&amp;n_pos=29</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Congreso, Capital Federal</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>$ 500.000</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>33 m² tot.1 amb.1 baño</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-dueno-alquila-monoambiente-semipiso-divisible-57384352.html?n_src=Listado&amp;n_pills=Encargado&amp;n_pg=1&amp;n_pos=30</t>
+          <t>https://www.zonaprop.com.ar/propiedades/clasificado/alclappa-departamento-monoambiente-en-c.-rivadavia-al-2000-53530892.html?n_src=Listado&amp;n_pills=Aire+acondicionado&amp;n_pg=1&amp;n_pos=30</t>
         </is>
       </c>
     </row>
